--- a/output/roster-output.xlsx
+++ b/output/roster-output.xlsx
@@ -11,56 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>height_in</t>
-  </si>
-  <si>
-    <t>injury</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Jill</t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>Susie</t>
-  </si>
-  <si>
-    <t>Johnny</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -119,8 +54,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,91 +351,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>injured</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>72</v>
+      </c>
+      <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jill</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Billy</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>68</v>
+      </c>
+      <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Susie</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>69</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Johnny</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="b">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
